--- a/MEDIA/合約目錄.xlsx
+++ b/MEDIA/合約目錄.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,44 +383,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>過期_LAW20170034</t>
+          <t>過期_LAW20170028</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>委託清除垃圾合約書</t>
+          <t>拉亞漢堡代訓店合約</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>安利環保服務有限公司</t>
+          <t>永和永貞.高雄自強.永康大橋.新市中興</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2017/07/01</t>
+          <t>2017/01/01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2019/12/31</t>
+          <t>2017/12/31</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>過期_LAW20170074</t>
+          <t>過期_LAW20170110</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>財務顧問委任契約</t>
+          <t>堤諾OCARD會員系統</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>永豐金財務咨詢(上海)有限公司</t>
+          <t>奧里科技股份有限公司</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -430,979 +430,628 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2018/02/28</t>
+          <t>2018/09/30</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>過期_LAW20180002</t>
+          <t>過期_LAW20180010</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>森邦106年度會計師委任書</t>
+          <t>拉亞漢堡代訓店合約</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>勤業眾信聯合會計師事務所</t>
+          <t>高雄自強,永康大橋,新市中興</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2017/06/01</t>
+          <t>2018/01/01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2018/05/31</t>
+          <t>2018/12/31</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>過期_LAW20180006</t>
+          <t>過期_LAW20180013</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>回收動植物廢食用油合約書</t>
+          <t>拉亞漢堡代訓店合約</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>尤加利環保有限公司</t>
+          <t>永和永貞店</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2018/02/14</t>
+          <t>2018/01/01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2019/02/13</t>
+          <t>2018/12/31</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>過期_LAW20180012</t>
+          <t>過期_LAW20180024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>安利環保垃圾士林店清運合約書</t>
+          <t>星展銀行2018年聯合促銷活動合作協議書-森邦集團</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>安利環保服務有限公司</t>
+          <t>星展銀行</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2018/01/01</t>
+          <t>2017/12/09</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2018/12/31</t>
+          <t>2018/03/31</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>過期_LAW20180026</t>
+          <t>LAW20180040</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>廢棄物委託代清除契約書</t>
+          <t>行銷推廣合作契約書</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>新新竹環保工程有限公司</t>
+          <t>悠遊卡股份有限公司</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2018/05/01</t>
+          <t>2018/03/01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2019/04/30</t>
+          <t>2023/12/31</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>過期_LAW20180155</t>
+          <t>過期_LAW20180045</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>檢驗服務合約書</t>
+          <t>加盟終止同意書</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>台灣檢驗科技股份有限公司</t>
+          <t>三峽國學</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2018/07/02</t>
+          <t>2016/08/01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2019/07/01</t>
+          <t>2018/04/09</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>過期_LAW20180216</t>
+          <t>過期_LAW20180090</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CloudMile萬里雲-雲端服務 專案合約書</t>
+          <t>拉亞漢堡代訓合約</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CloudMile萬里雲</t>
+          <t>台中中工</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2018/10/17</t>
+          <t>2018/01/01</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2019/10/19</t>
+          <t>2018/12/31</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>過期_LAW20180241</t>
+          <t>過期_LAW20180112</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Adecco 人才招募契約</t>
+          <t>拉亞加盟合約書</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>藝珂人事顧問股份有限公司</t>
+          <t>苗栗中正</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2018/08/02</t>
+          <t>2018/06/12</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2019/08/01</t>
+          <t>2020/07/31</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>過期_LAW20180249</t>
+          <t>過期_LAW20180168</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>國立中央大學產學合作契約書</t>
+          <t> STAYFUN 員工福利整合平台</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>國立中央大學</t>
+          <t>鼎恒數位科技股份有限公司</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2018/11/01</t>
+          <t>2018/07/01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2020/05/31</t>
+          <t>2019/06/30</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>過期_LAW20190012</t>
+          <t>過期_LAW20180183</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>科技部補助產學合作研究計畫合作企業參與合作計畫意願書</t>
+          <t>瓦薩內科 iCHEF POS 服務契約</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中央大學</t>
+          <t>資廚管理顧問股份有限公司</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2019/01/15</t>
+          <t>2018/03/16</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2019/08/31</t>
+          <t>2019/03/15</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>過期_LAW20190020</t>
+          <t>過期_LAW20180184</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>承攬廢棄物清理合約書</t>
+          <t>iCHEF POS服務契約-堤諾濟南</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>尤加利環保有限公司</t>
+          <t>資廚管理顧問股份有限公司</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2019/02/14</t>
+          <t>2018/05/01</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2020/02/13</t>
+          <t>2020/06/30</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>過期_LAW20190033</t>
+          <t>過期_LAW20180188</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>檢驗服務合約書</t>
+          <t>iCHEF世貿續約合約</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>台灣檢驗科技股份有限公司</t>
+          <t>資廚iCHEF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2019/01/14</t>
+          <t>2018/08/01</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2020/01/15</t>
+          <t>2020/07/31</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>過期_LAW20190034</t>
+          <t>過期_LAW20180190</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>呂煌祺建築事務所森邦國際路新廠新建工程委任合約書</t>
+          <t>瓦薩台中貨櫃-iCHEF POS服務契約</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>呂煌祺建築事務所</t>
+          <t>資廚管理顧問股份有限公司</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2019/03/12</t>
+          <t>2017/12/21</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2019/12/31</t>
+          <t>2018/06/30</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>過期_LAW20190038</t>
+          <t>過期_LAW20180191</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>一般委託契約</t>
+          <t>喀漢堡台中貨櫃-iCHEF POS服務契約</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天帷企管顧問工作室</t>
+          <t>資廚管理顧問股份有限公司</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2019/03/12</t>
+          <t>2017/12/21</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2019/12/31</t>
+          <t>2018/06/30</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>過期_LAW20190039</t>
+          <t>過期_LAW20180217</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>森邦_JDE維護合約</t>
+          <t>商邦餐飲有限公司 特約商店合約書</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鴻利資訊</t>
+          <t>台灣羅威、思琳、台灣紀凡希等股份有限公司</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2019/03/15</t>
+          <t>2018/11/01</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2020/03/14</t>
+          <t>2019/12/31</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>過期_LAW20190048</t>
+          <t>過期_LAW20180219</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LINE@帳號授權書</t>
+          <t>拉亞漢堡：悠遊卡合約</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>台北數位廣告股份有限公司</t>
+          <t>悠遊卡股份有限公司</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2019/04/01</t>
+          <t>2018/11/13</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2020/03/31</t>
+          <t>2018/12/31</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>過期_LAW20190061</t>
+          <t>過期_LAW20180225</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>顧問輔導合約</t>
+          <t>ATT商場合作外送平台FOODPANDA聯繫函</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>商研院</t>
+          <t>吸引力綜合百貨股份有限公司</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2019/05/01</t>
+          <t>2018/12/01</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2020/04/30</t>
+          <t>2019/11/30</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>過期_LAW20190146</t>
+          <t>過期_LAW20180234</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>108年中央大學產學合作期間變更函文及補充協議書</t>
+          <t>LINE Pay 支付合作</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>國立中央大學</t>
+          <t>連加網路商業股份有限公司</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2019/06/01</t>
+          <t>2018/08/01</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2020/05/31</t>
+          <t>2019/07/31</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>過期_LAW20190147</t>
+          <t>過期_LAW20190023</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>常年法律顧問聘任書</t>
+          <t>商邦餐飲有限公司 特約商店合約書-亞太地產</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>劉彥廷律師/巨群趨勢法律事務所</t>
+          <t>亞太國際地產股份有限公司</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2019/09/02</t>
+          <t>2019/01/01</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2020/09/02</t>
+          <t>2019/12/31</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>過期_LAW20190156</t>
+          <t>LAW20190110</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>悠遊卡設備安裝作業契約書</t>
+          <t>特約商店-堤諾</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>悠遊卡股份有限公司</t>
+          <t>碁富食品股份有限公司職工福利委員會</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2018/09/01</t>
+          <t>2019/06/30</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2019/01/31</t>
+          <t>2020/12/31</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>過期_LAW20190161</t>
+          <t>LAW20190134</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>森邦集團Line官方帳號訂貨庫存管理系統合約書</t>
+          <t>ichef租期移轉合約</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>傳雄科技顧問股份有限公司</t>
+          <t>資廚管理顧問有限公司</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2019/05/01</t>
+          <t>2018/09/07</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2019/12/31</t>
+          <t>2021/03/31</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>過期_LAW20190162</t>
+          <t>LAW20190135</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>商邦_傳雄商業技術輸出合約</t>
+          <t>ichef租期移轉合約</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>傳雄科技顧問股份有限公司</t>
+          <t>資廚管理顧問股份有限公司</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2019/05/01</t>
+          <t>2018/04/01</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2019/12/31</t>
+          <t>2021/07/31</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>過期_LAW20190169</t>
+          <t>過期_LAW20190149</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>拉亞幸福店廢棄物清運合約</t>
+          <t>悠遊卡特約機構契約書</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>永業環境工程股份有限公司</t>
+          <t>悠遊卡股份有限公司</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2019/07/14</t>
+          <t>2018/05/01</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2020/07/31</t>
+          <t>2019/04/30</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>LAW20190171</t>
+          <t>LAW20200036</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>統一速達/統一客樂得服務報價協議事項續約</t>
+          <t>代訓合約(台中永安)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>統一速達(股)/統一客樂得服務(股)</t>
+          <t>曾淳娟/台中永安</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2019/11/01</t>
+          <t>2020/02/01</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2021/10/31</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>LAW20190177</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>逢甲店廢棄物清運合約</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>清大環境科技工程有限公司</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2020/01/01</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2021/12/31</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>LAW20190186</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>安利垃圾清運合約</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>安利環保服務有限公司</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2020/01/01</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>2021/12/31</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>過期_LAW20200001</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>委託書</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>益彬實業有限公司</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2019/12/18</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>2020/01/31</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>過期_LAW20200011</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>委託書</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>益彬實業有限公司</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2020/01/20</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>2020/02/29</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>過期_LAW20200019</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>委託書</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>益彬實業有限公司</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2020/03/02</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>2020/04/02</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>過期_LAW20200025</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>委託書(提單039AA05689)</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>益彬實業有限公司</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2020/03/11</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>2020/04/10</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>LAW20200037</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>回收動植物廢食用油合約書 </t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>尤加利環保有限公司</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2020/02/14</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>2021/02/13</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>過期_LAW20200041</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>委託書(提單039AA08362)</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>益彬實業有限公司</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>2020/04/10</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>2020/05/08</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>過期_LAW20200057</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>委託書(提單039AA09380)</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>益彬實業有限公司</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2020/04/23</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>2020/05/22</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>LAW20200063</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>委任契約書</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>智盛企業管理有限公司</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2020/05/07</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>2021/05/06</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>LAW20200101</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>光泉代工代送</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>光泉牧場股份有限公司</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>2020/07/10</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
           <t>2020/12/31</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>LAW20200108</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>檢驗服務合約書</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>台灣檢驗科技股份有限公司</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>2020/07/10</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>2021/07/09</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>過期_LAW20200129</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>委託書(提單039AA12506)</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>益彬實業有限公司</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>2020/06/08</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>2020/06/30</t>
         </is>
       </c>
     </row>

--- a/MEDIA/合約目錄.xlsx
+++ b/MEDIA/合約目錄.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,530 +383,530 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>過期_LAW20170028</t>
+          <t>過期_LAW20170039</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>拉亞漢堡代訓店合約</t>
+          <t>綠原牛奶季約採購</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>永和永貞.高雄自強.永康大橋.新市中興</t>
+          <t>台紐</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2017/01/01</t>
+          <t>2017/08/01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2017/12/31</t>
+          <t>2017/10/31</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>過期_LAW20170110</t>
+          <t>LAW20170061</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>堤諾OCARD會員系統</t>
+          <t>福祥液化石油供氣契約書</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>奧里科技股份有限公司</t>
+          <t>福祥液化石油氣有限公司</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2017/09/01</t>
+          <t>2017/08/26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2018/09/30</t>
+          <t>2022/08/25</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>過期_LAW20180010</t>
+          <t>過期_LAW20170071</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>拉亞漢堡代訓店合約</t>
+          <t>G Suite帳號授權費用報價單</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>高雄自強,永康大橋,新市中興</t>
+          <t>神通資訊科技股份有限公司</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2018/01/01</t>
+          <t>2017/10/04</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2018/12/31</t>
+          <t>2018/10/03</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>過期_LAW20180013</t>
+          <t>過期_LAW20170089</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>拉亞漢堡代訓店合約</t>
+          <t>綠原牛奶採購季約</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>永和永貞店</t>
+          <t>模里西斯商台紐(股)公司台灣分公司</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2018/01/01</t>
+          <t>2017/11/15</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2018/12/31</t>
+          <t>2017/12/31</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>過期_LAW20180024</t>
+          <t>過期_LAW20180001</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>星展銀行2018年聯合促銷活動合作協議書-森邦集團</t>
+          <t>鮮奶油採購年約</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>星展銀行</t>
+          <t>皓廷食品科技有限公司</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2017/12/09</t>
+          <t>2018/01/01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2018/03/31</t>
+          <t>2018/12/31</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LAW20180040</t>
+          <t>過期_LAW20180004</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>行銷推廣合作契約書</t>
+          <t>綠原特選牛奶季約</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>悠遊卡股份有限公司</t>
+          <t>模里西斯商台紐股份有限公司台灣分公司</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2018/03/01</t>
+          <t>2018/01/15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2023/12/31</t>
+          <t>2018/03/15</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>過期_LAW20180045</t>
+          <t>過期_LAW20180005</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>加盟終止同意書</t>
+          <t>全脂奶粉季約</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>三峽國學</t>
+          <t>模里西斯商台紐股份有限公司台灣分公司</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2016/08/01</t>
+          <t>2018/01/22</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2018/04/09</t>
+          <t>2018/03/06</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>過期_LAW20180090</t>
+          <t>過期_LAW20180035</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>拉亞漢堡代訓合約</t>
+          <t>綠原特選牛奶季約</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>台中中工</t>
+          <t>台紐</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2018/01/01</t>
+          <t>2018/04/04</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2018/12/31</t>
+          <t>2018/06/25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>過期_LAW20180112</t>
+          <t>過期_LAW20180065</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>拉亞加盟合約書</t>
+          <t>台紐 全脂奶粉買賣合約</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>苗栗中正</t>
+          <t>模里西斯商台紐股份有限公司台灣分公司</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2018/06/12</t>
+          <t>2018/06/01</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2020/07/31</t>
+          <t>2018/10/31</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>過期_LAW20180168</t>
+          <t>過期_LAW20180097</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t> STAYFUN 員工福利整合平台</t>
+          <t>貨櫃買賣契約書</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鼎恒數位科技股份有限公司</t>
+          <t>侯家棠、陳昌銘(廠商)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2018/07/01</t>
+          <t>2018/05/30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2019/06/30</t>
+          <t>2018/05/31</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>過期_LAW20180183</t>
+          <t>過期_LAW20180104</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>瓦薩內科 iCHEF POS 服務契約</t>
+          <t>綠原特選牛奶約</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>資廚管理顧問股份有限公司</t>
+          <t>模里西斯商台紐股份有限公司台灣分公司</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2018/03/16</t>
+          <t>2018/07/01</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2019/03/15</t>
+          <t>2018/12/31</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>過期_LAW20180184</t>
+          <t>過期_LAW20180131</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>iCHEF POS服務契約-堤諾濟南</t>
+          <t>拉亞漢堡-POS軟硬體系統銷售合約書</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>資廚管理顧問股份有限公司</t>
+          <t>益欣資訊股份有限公司</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2018/05/01</t>
+          <t>2017/10/01</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2020/06/30</t>
+          <t>2018/12/31</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>過期_LAW20180188</t>
+          <t>過期_LAW20180140</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>iCHEF世貿續約合約</t>
+          <t>LAYAx101合作案-合約</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>資廚iCHEF</t>
+          <t>台北金融大樓股份有限公司</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2018/08/01</t>
+          <t>2018/07/01</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2020/07/31</t>
+          <t>2018/08/31</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>過期_LAW20180190</t>
+          <t>過期_LAW20180156</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>瓦薩台中貨櫃-iCHEF POS服務契約</t>
+          <t>綠原特選牛奶季約</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>資廚管理顧問股份有限公司</t>
+          <t>模里西斯商台紐股份有限公司台灣分公司</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2017/12/21</t>
+          <t>2018/12/01</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2018/06/30</t>
+          <t>2018/12/31</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>過期_LAW20180191</t>
+          <t>過期_LAW20180163</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>喀漢堡台中貨櫃-iCHEF POS服務契約</t>
+          <t>不動產買賣契約書</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>資廚管理顧問股份有限公司</t>
+          <t>豐盈開發股份有限公司</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2017/12/21</t>
+          <t>2018/08/15</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2018/06/30</t>
+          <t>2018/08/15</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>過期_LAW20180217</t>
+          <t>過期_LAW20180169</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>商邦餐飲有限公司 特約商店合約書</t>
+          <t>馬茲卡邦乳酪買賣契約</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>台灣羅威、思琳、台灣紀凡希等股份有限公司</t>
+          <t>貝里斯商鵬達管理顧問有限公司台灣分公司</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2018/11/01</t>
+          <t>2018/09/01</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2019/12/31</t>
+          <t>2019/01/31</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>過期_LAW20180219</t>
+          <t>過期_LAW20180194</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>拉亞漢堡：悠遊卡合約</t>
+          <t>千層蛋餅年約</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>悠遊卡股份有限公司</t>
+          <t>金御園食品有限公司</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2018/11/13</t>
+          <t>2018/10/01</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2018/12/31</t>
+          <t>2019/09/30</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>過期_LAW20180225</t>
+          <t>過期_LAW20180195</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ATT商場合作外送平台FOODPANDA聯繫函</t>
+          <t>Google 雲端應用服務合約</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>吸引力綜合百貨股份有限公司</t>
+          <t>馬來西亞商思想科技有限公司台灣分公司</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2018/12/01</t>
+          <t>2018/10/03</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2019/11/30</t>
+          <t>2019/10/02</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>過期_LAW20180234</t>
+          <t>過期_LAW20180198</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LINE Pay 支付合作</t>
+          <t>台紐 全脂奶粉買賣合約</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>連加網路商業股份有限公司</t>
+          <t>模里西斯商台紐股份有限公司台灣分公司</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2018/08/01</t>
+          <t>2018/12/01</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2019/07/31</t>
+          <t>2019/04/30</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>過期_LAW20190023</t>
+          <t>過期_LAW20180227</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>商邦餐飲有限公司 特約商店合約書-亞太地產</t>
+          <t>銀娃娃鮮奶油年約</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>亞太國際地產股份有限公司</t>
+          <t>皓廷食品科技有限公司</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -923,135 +923,729 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LAW20190110</t>
+          <t>過期_LAW20180247</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>特約商店-堤諾</t>
+          <t>拉亞漢堡：小小兵生產合約書</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>碁富食品股份有限公司職工福利委員會</t>
+          <t>立得禮品贈品有限公司</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2019/06/30</t>
+          <t>2018/11/12</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2020/12/31</t>
+          <t>2019/03/30</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LAW20190134</t>
+          <t>過期_LAW20190001</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ichef租期移轉合約</t>
+          <t>拉亞雞蛋合作一年期專案合約</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>資廚管理顧問有限公司</t>
+          <t>華元生活科技股份有限公司</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2018/09/07</t>
+          <t>2018/09/01</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2021/03/31</t>
+          <t>2019/08/31</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>LAW20190135</t>
+          <t>過期_LAW20190006</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ichef租期移轉合約</t>
+          <t>布列德麵包採購合約書</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>資廚管理顧問股份有限公司</t>
+          <t>布列德麵包(股)公司</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2018/04/01</t>
+          <t>2019/01/01</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2021/07/31</t>
+          <t>2019/12/31</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>過期_LAW20190149</t>
+          <t>過期_LAW20190008</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>悠遊卡特約機構契約書</t>
+          <t>綠原特選牛奶季約</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>悠遊卡股份有限公司</t>
+          <t>模里西斯商台紐股份有限公司台灣分公司</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2018/05/01</t>
+          <t>2019/01/15</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2019/04/30</t>
+          <t>2019/05/31</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>LAW20200036</t>
+          <t>過期_LAW20190032</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>代訓合約(台中永安)</t>
+          <t>台紐 全脂奶粉買賣合約</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>曾淳娟/台中永安</t>
+          <t>模里西斯商台紐股份有限公司台灣分公司</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2020/02/01</t>
+          <t>2019/05/01</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
+          <t>2019/09/30</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>過期_LAW20190054</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>綠原特選牛奶季約</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>模里西斯商台紐股份有限公司台灣分公司</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2019/05/01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2019/07/31</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>過期_LAW20190086</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>三意時代書籍購買</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>吳仁麟</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2019/04/18</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2020/03/31</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>LAW20190112</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>液化石油氣供氣契約書</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>福祥液化石油氣有限公司</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2019/06/01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2024/05/31</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>過期_LAW20190126</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>翔琪雷克全脂保久乳</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>翔琪實業有限公司</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2019/09/01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2020/02/29</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>LAW20190165</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Google 雲端應用服務合約</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>馬來西亞商思想科技有限公司台灣分公司</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2019/10/02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2021/10/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>過期_LAW20190166</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>60168森邦_Acer R380 Quotation_20190926</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>香港商第一線有限公司台灣分公司</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2019/09/26</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2019/09/26</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>過期_LAW20190170</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>拉亞梅森杯買賣契約書</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>順揚玻璃有限公司</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2019/08/01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2019/09/30</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>過期_LAW20190174</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>光泉 乳香世家銷售合約</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>光泉食品(股)公司</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2019/11/01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2020/10/31</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>LAW20190179</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>奶精919採購案</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>禾山國際有限公司</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2019/12/01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>2020/12/31</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>過期_LAW20190187</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>台紐 全脂奶粉買賣合約</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>模里西斯商台紐股份有限公司台灣分公司</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2019/12/01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2020/03/31</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>LAW20200002</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>布列德麵包股份有限公司採購合約書</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>布列德麵包(股)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2020/01/01</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2020/12/31</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>過期_LAW20200006</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>拉亞媽祖活動保鮮盒合約書</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>總頡經貿有限公司</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2020/01/08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2020/02/29</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>過期_LAW20200017</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>台紐 全脂奶粉買賣合約</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>模里西斯商台紐股份有限公司台灣分公司</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2020/03/25</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2020/06/30</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>LAW20200029</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>康特POS軟體系統租賃暨硬體採購合約書</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>康特健康科技(股)</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2020/03/02</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2022/12/31</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>LAW20200033</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>翔琪雷克全脂保久乳</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>翔琪實業有限公司</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2020/04/01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2021/03/31</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>過期_LAW20200077</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>台紐 全脂奶粉買賣合約</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>模里西斯商台紐股份有限公司台灣分公司</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2020/07/01</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2020/10/31</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>LAW20200089</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>奶精919採購案</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>禾山國際有限公司</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2021/01/01</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2022/06/30</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>LAW20200114</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>買賣契約書</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>尚德酒業有限公司</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2020/08/31</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2020/12/31</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>LAW20200119</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>台紐 全脂奶粉買賣合約</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>模里西斯商台紐股份有限公司台灣分公司</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2020/10/15</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2021/02/28</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>LAW20200137</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>蜂蜜柚子醬買賣合約</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>三紅企業(股)公司</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2020/11/01</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2021/10/31</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>LAW20200141</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>光泉 乳香世家銷售合約</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>光泉食品(股)公司</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2020/11/01</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2021/10/31</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>LAW20200142</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>台紐 全脂奶粉買賣合約</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>模里西斯商台紐股份有限公司台灣分公司</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2021/02/01</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2021/03/31</t>
         </is>
       </c>
     </row>
